--- a/subscriptions.xlsx
+++ b/subscriptions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,11 +488,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Oura Ring</t>
+          <t>JioFiber</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1000</v>
+        <v>699</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -501,23 +501,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>utilities</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JioFiber</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>699</v>
+        <v>1000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -526,12 +526,62 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>utilities</t>
+          <t>entertainment</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>spotify</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>entertainment</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>entertainment</t>
         </is>
       </c>
     </row>
